--- a/assets/uploads/pdf.xlsx
+++ b/assets/uploads/pdf.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>CÓDIGO(CLAVE) PRODUCTO</t>
   </si>
@@ -39,13 +39,22 @@
   </si>
   <si>
     <t>FOLIO FACTURA</t>
+  </si>
+  <si>
+    <t>FECHA</t>
+  </si>
+  <si>
+    <t>TOTAL FACTURA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,11 +75,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -86,7 +90,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -94,15 +98,77 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -396,27 +462,55 @@
     <col min="2" max="2" width="51.140625" customWidth="1"/>
     <col min="3" max="3" width="19.140625" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="F1" s="8"/>
     </row>
-    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
